--- a/deployment/Omaha_Cal_Info_GP05MOAS-GL363_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_GP05MOAS-GL363_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="220" windowWidth="21760" windowHeight="10640" tabRatio="377"/>
+    <workbookView xWindow="480" yWindow="225" windowWidth="21765" windowHeight="10635" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$94</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$379</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>Ref Des</t>
   </si>
@@ -129,7 +134,22 @@
     <t>GP05MOAS-GL363</t>
   </si>
   <si>
-    <t>7:08:00 UTC</t>
+    <t>appears to have bene recovered at 7:08:00 UTC</t>
+  </si>
+  <si>
+    <t>A00378</t>
+  </si>
+  <si>
+    <t>N00631</t>
+  </si>
+  <si>
+    <t>N00630</t>
+  </si>
+  <si>
+    <t>N00629</t>
+  </si>
+  <si>
+    <t>OL000126</t>
   </si>
 </sst>
 </file>
@@ -137,7 +157,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -215,17 +235,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -298,7 +321,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -357,7 +380,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,11 +395,8 @@
     <xf numFmtId="20" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -775,104 +794,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="23" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="23" customWidth="1"/>
-    <col min="5" max="9" width="19.33203125" style="23" customWidth="1"/>
-    <col min="10" max="11" width="11.1640625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="35.5" style="23" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" style="23" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" style="23" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="23"/>
+    <col min="1" max="1" width="12.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="23" customWidth="1"/>
+    <col min="5" max="9" width="19.28515625" style="23" customWidth="1"/>
+    <col min="10" max="11" width="11.140625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="35.42578125" style="23" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="23" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="32" customFormat="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="1:14" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>363</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>2</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="27">
         <v>42551</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <v>0.10416666666666667</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="27">
         <v>42556</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="29">
         <v>50.166483333333332</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>-144.50106666666667</v>
       </c>
-      <c r="J2" s="27">
+      <c r="J2" s="26">
         <v>1000</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="G4" s="33" t="s">
+      <c r="L2" s="31" t="s">
         <v>29</v>
       </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -889,25 +907,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="22" customWidth="1"/>
-    <col min="7" max="7" width="29.5" style="22" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="1" width="34.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="22" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -933,18 +951,22 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
       <c r="C2" s="12">
         <v>363</v>
       </c>
       <c r="D2" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
       <c r="F2" s="20">
         <v>3063</v>
       </c>
@@ -958,18 +980,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
       <c r="C3" s="13">
         <v>363</v>
       </c>
       <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="21">
         <v>3063</v>
       </c>
@@ -983,18 +1009,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
       <c r="C4" s="13">
         <v>363</v>
       </c>
       <c r="D4" s="10">
         <v>2</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
       <c r="F4" s="21">
         <v>3063</v>
       </c>
@@ -1008,18 +1038,22 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="13">
         <v>363</v>
       </c>
       <c r="D5" s="10">
         <v>2</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
       <c r="F5" s="21">
         <v>3063</v>
       </c>
@@ -1033,7 +1067,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1">
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="13"/>
@@ -1049,18 +1083,22 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1">
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
       <c r="C7" s="14">
         <v>363</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="19">
         <v>161</v>
       </c>
@@ -1075,7 +1113,7 @@
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1">
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="13"/>
@@ -1091,18 +1129,22 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1">
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
       <c r="C9" s="14">
         <v>363</v>
       </c>
       <c r="D9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
       <c r="F9" s="19">
         <v>9065</v>
       </c>
@@ -1117,7 +1159,7 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1">
+    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="13"/>
@@ -1133,18 +1175,22 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
       <c r="C11" s="14">
         <v>363</v>
       </c>
       <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" s="18">
         <v>363</v>
       </c>
@@ -1159,7 +1205,7 @@
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1">
+    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="6"/>
